--- a/src/databases/WP6_BoM.xlsx
+++ b/src/databases/WP6_BoM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,16 +9,118 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+  <si>
+    <t>Vc_Acc_Boat [m/s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hs_Acc_Heli [m] </t>
+  </si>
+  <si>
+    <t>Vw_Acc_ Heli [m/s]</t>
+  </si>
+  <si>
+    <t>Vw_Acc_Boat [m/s]</t>
+  </si>
+  <si>
+    <t>Hs_Acc_Boat [m]</t>
+  </si>
+  <si>
+    <t>Heliport [-]</t>
+  </si>
+  <si>
+    <t>Num_device  [-]</t>
+  </si>
+  <si>
+    <t>Hs_Max [m]</t>
+  </si>
+  <si>
+    <t>Vw_Max [m/s]</t>
+  </si>
+  <si>
+    <t>Vc_Max [m/s]</t>
+  </si>
+  <si>
+    <t>T_OnSite [h]</t>
+  </si>
+  <si>
+    <t>Number_Passengers [-]</t>
+  </si>
+  <si>
+    <t>Length_SP [m]</t>
+  </si>
+  <si>
+    <t>Width_SP [m]</t>
+  </si>
+  <si>
+    <t>Height_SP [m]</t>
+  </si>
+  <si>
+    <t>1992-01-04 03</t>
+  </si>
+  <si>
+    <t>T_start [YYYY-MM-DD h]</t>
+  </si>
+  <si>
+    <t>Device0</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>99.9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Total_Mass_SP [t]</t>
+  </si>
+  <si>
+    <t>Indiv_Mass_SP [t]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -44,14 +146,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +248,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +456,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
+    <col min="15" max="16" width="16.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/databases/WP6_BoM.xlsx
+++ b/src/databases/WP6_BoM.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -61,9 +61,6 @@
     <t>Height_SP [m]</t>
   </si>
   <si>
-    <t>1992-01-04 03</t>
-  </si>
-  <si>
     <t>T_start [YYYY-MM-DD h]</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Indiv_Mass_SP [t]</t>
+  </si>
+  <si>
+    <t>1992-01-04 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +487,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -526,10 +526,10 @@
         <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>12</v>
@@ -546,58 +546,58 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/databases/WP6_BoM.xlsx
+++ b/src/databases/WP6_BoM.xlsx
@@ -61,9 +61,6 @@
     <t>Height_SP [m]</t>
   </si>
   <si>
-    <t>T_start [YYYY-MM-DD h]</t>
-  </si>
-  <si>
     <t>Device0</t>
   </si>
   <si>
@@ -94,7 +91,10 @@
     <t>Indiv_Mass_SP [t]</t>
   </si>
   <si>
-    <t>1992-01-04 00:00:00</t>
+    <t>T_start</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
 </sst>
 </file>
@@ -459,14 +459,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
@@ -487,7 +487,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -526,10 +526,10 @@
         <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>12</v>
@@ -549,55 +549,55 @@
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/databases/WP6_BoM.xlsx
+++ b/src/databases/WP6_BoM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Vc_Acc_Boat [m/s]</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>500</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -459,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +573,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
